--- a/task_1/data/students_result.xlsx
+++ b/task_1/data/students_result.xlsx
@@ -447,8 +447,10 @@
       <c r="B2" t="n">
         <v>101</v>
       </c>
-      <c r="C2" t="n">
-        <v>8.33</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -460,8 +462,10 @@
       <c r="B3" t="n">
         <v>102</v>
       </c>
-      <c r="C3" t="n">
-        <v>8</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -473,8 +477,10 @@
       <c r="B4" t="n">
         <v>104</v>
       </c>
-      <c r="C4" t="n">
-        <v>7.67</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -486,8 +492,10 @@
       <c r="B5" t="n">
         <v>100</v>
       </c>
-      <c r="C5" t="n">
-        <v>7.33</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -499,8 +507,10 @@
       <c r="B6" t="n">
         <v>100</v>
       </c>
-      <c r="C6" t="n">
-        <v>8.67</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -512,8 +522,10 @@
       <c r="B7" t="n">
         <v>101</v>
       </c>
-      <c r="C7" t="n">
-        <v>8.33</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -525,8 +537,10 @@
       <c r="B8" t="n">
         <v>101</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.33</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -538,8 +552,10 @@
       <c r="B9" t="n">
         <v>102</v>
       </c>
-      <c r="C9" t="n">
-        <v>7.33</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -551,8 +567,10 @@
       <c r="B10" t="n">
         <v>102</v>
       </c>
-      <c r="C10" t="n">
-        <v>8.67</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -564,8 +582,10 @@
       <c r="B11" t="n">
         <v>100</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.67</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -577,8 +597,10 @@
       <c r="B12" t="n">
         <v>104</v>
       </c>
-      <c r="C12" t="n">
-        <v>7</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -590,8 +612,10 @@
       <c r="B13" t="n">
         <v>103</v>
       </c>
-      <c r="C13" t="n">
-        <v>6</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -603,8 +627,10 @@
       <c r="B14" t="n">
         <v>100</v>
       </c>
-      <c r="C14" t="n">
-        <v>8.33</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -616,8 +642,10 @@
       <c r="B15" t="n">
         <v>101</v>
       </c>
-      <c r="C15" t="n">
-        <v>8.67</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -629,8 +657,10 @@
       <c r="B16" t="n">
         <v>104</v>
       </c>
-      <c r="C16" t="n">
-        <v>6.33</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -642,8 +672,10 @@
       <c r="B17" t="n">
         <v>104</v>
       </c>
-      <c r="C17" t="n">
-        <v>6.33</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -655,8 +687,10 @@
       <c r="B18" t="n">
         <v>104</v>
       </c>
-      <c r="C18" t="n">
-        <v>7</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -668,8 +702,10 @@
       <c r="B19" t="n">
         <v>104</v>
       </c>
-      <c r="C19" t="n">
-        <v>8</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -681,8 +717,10 @@
       <c r="B20" t="n">
         <v>100</v>
       </c>
-      <c r="C20" t="n">
-        <v>5.33</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -694,8 +732,10 @@
       <c r="B21" t="n">
         <v>101</v>
       </c>
-      <c r="C21" t="n">
-        <v>8.33</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -707,8 +747,10 @@
       <c r="B22" t="n">
         <v>103</v>
       </c>
-      <c r="C22" t="n">
-        <v>6.67</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -720,8 +762,10 @@
       <c r="B23" t="n">
         <v>104</v>
       </c>
-      <c r="C23" t="n">
-        <v>6.67</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -733,8 +777,10 @@
       <c r="B24" t="n">
         <v>102</v>
       </c>
-      <c r="C24" t="n">
-        <v>7.67</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -746,8 +792,10 @@
       <c r="B25" t="n">
         <v>103</v>
       </c>
-      <c r="C25" t="n">
-        <v>9.33</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -759,8 +807,10 @@
       <c r="B26" t="n">
         <v>102</v>
       </c>
-      <c r="C26" t="n">
-        <v>7.33</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -772,8 +822,10 @@
       <c r="B27" t="n">
         <v>103</v>
       </c>
-      <c r="C27" t="n">
-        <v>6</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -785,8 +837,10 @@
       <c r="B28" t="n">
         <v>102</v>
       </c>
-      <c r="C28" t="n">
-        <v>9.33</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -798,8 +852,10 @@
       <c r="B29" t="n">
         <v>104</v>
       </c>
-      <c r="C29" t="n">
-        <v>8</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -811,8 +867,10 @@
       <c r="B30" t="n">
         <v>100</v>
       </c>
-      <c r="C30" t="n">
-        <v>6.67</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -824,8 +882,10 @@
       <c r="B31" t="n">
         <v>104</v>
       </c>
-      <c r="C31" t="n">
-        <v>7</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -837,8 +897,10 @@
       <c r="B32" t="n">
         <v>103</v>
       </c>
-      <c r="C32" t="n">
-        <v>6.33</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -850,8 +912,10 @@
       <c r="B33" t="n">
         <v>102</v>
       </c>
-      <c r="C33" t="n">
-        <v>8.33</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -863,8 +927,10 @@
       <c r="B34" t="n">
         <v>100</v>
       </c>
-      <c r="C34" t="n">
-        <v>5.67</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -876,8 +942,10 @@
       <c r="B35" t="n">
         <v>104</v>
       </c>
-      <c r="C35" t="n">
-        <v>7.33</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -889,8 +957,10 @@
       <c r="B36" t="n">
         <v>102</v>
       </c>
-      <c r="C36" t="n">
-        <v>9</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -902,8 +972,10 @@
       <c r="B37" t="n">
         <v>102</v>
       </c>
-      <c r="C37" t="n">
-        <v>7.67</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -915,8 +987,10 @@
       <c r="B38" t="n">
         <v>100</v>
       </c>
-      <c r="C38" t="n">
-        <v>8.33</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -928,8 +1002,10 @@
       <c r="B39" t="n">
         <v>102</v>
       </c>
-      <c r="C39" t="n">
-        <v>7.33</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -941,8 +1017,10 @@
       <c r="B40" t="n">
         <v>104</v>
       </c>
-      <c r="C40" t="n">
-        <v>8.33</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -954,8 +1032,10 @@
       <c r="B41" t="n">
         <v>103</v>
       </c>
-      <c r="C41" t="n">
-        <v>5.33</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -967,8 +1047,10 @@
       <c r="B42" t="n">
         <v>102</v>
       </c>
-      <c r="C42" t="n">
-        <v>9.67</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -980,8 +1062,10 @@
       <c r="B43" t="n">
         <v>101</v>
       </c>
-      <c r="C43" t="n">
-        <v>6.33</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -993,8 +1077,10 @@
       <c r="B44" t="n">
         <v>100</v>
       </c>
-      <c r="C44" t="n">
-        <v>7.33</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1006,8 +1092,10 @@
       <c r="B45" t="n">
         <v>102</v>
       </c>
-      <c r="C45" t="n">
-        <v>5.67</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1019,8 +1107,10 @@
       <c r="B46" t="n">
         <v>104</v>
       </c>
-      <c r="C46" t="n">
-        <v>6.67</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1032,8 +1122,10 @@
       <c r="B47" t="n">
         <v>102</v>
       </c>
-      <c r="C47" t="n">
-        <v>7</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1045,8 +1137,10 @@
       <c r="B48" t="n">
         <v>101</v>
       </c>
-      <c r="C48" t="n">
-        <v>7</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1058,8 +1152,10 @@
       <c r="B49" t="n">
         <v>104</v>
       </c>
-      <c r="C49" t="n">
-        <v>8.67</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1071,8 +1167,10 @@
       <c r="B50" t="n">
         <v>103</v>
       </c>
-      <c r="C50" t="n">
-        <v>8</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1084,8 +1182,10 @@
       <c r="B51" t="n">
         <v>104</v>
       </c>
-      <c r="C51" t="n">
-        <v>7</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1097,8 +1197,10 @@
       <c r="B52" t="n">
         <v>103</v>
       </c>
-      <c r="C52" t="n">
-        <v>8.67</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1110,8 +1212,10 @@
       <c r="B53" t="n">
         <v>104</v>
       </c>
-      <c r="C53" t="n">
-        <v>9</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1123,8 +1227,10 @@
       <c r="B54" t="n">
         <v>101</v>
       </c>
-      <c r="C54" t="n">
-        <v>7</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1136,8 +1242,10 @@
       <c r="B55" t="n">
         <v>104</v>
       </c>
-      <c r="C55" t="n">
-        <v>8.33</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1149,8 +1257,10 @@
       <c r="B56" t="n">
         <v>104</v>
       </c>
-      <c r="C56" t="n">
-        <v>7</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1162,8 +1272,10 @@
       <c r="B57" t="n">
         <v>103</v>
       </c>
-      <c r="C57" t="n">
-        <v>9</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1175,8 +1287,10 @@
       <c r="B58" t="n">
         <v>104</v>
       </c>
-      <c r="C58" t="n">
-        <v>5.33</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1188,8 +1302,10 @@
       <c r="B59" t="n">
         <v>104</v>
       </c>
-      <c r="C59" t="n">
-        <v>4.67</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1201,8 +1317,10 @@
       <c r="B60" t="n">
         <v>103</v>
       </c>
-      <c r="C60" t="n">
-        <v>7.67</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1214,8 +1332,10 @@
       <c r="B61" t="n">
         <v>100</v>
       </c>
-      <c r="C61" t="n">
-        <v>8.67</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1227,8 +1347,10 @@
       <c r="B62" t="n">
         <v>103</v>
       </c>
-      <c r="C62" t="n">
-        <v>6.33</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1240,8 +1362,10 @@
       <c r="B63" t="n">
         <v>102</v>
       </c>
-      <c r="C63" t="n">
-        <v>5.33</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1253,8 +1377,10 @@
       <c r="B64" t="n">
         <v>102</v>
       </c>
-      <c r="C64" t="n">
-        <v>7.67</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -1266,8 +1392,10 @@
       <c r="B65" t="n">
         <v>100</v>
       </c>
-      <c r="C65" t="n">
-        <v>8.33</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1279,8 +1407,10 @@
       <c r="B66" t="n">
         <v>103</v>
       </c>
-      <c r="C66" t="n">
-        <v>4.67</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -1292,8 +1422,10 @@
       <c r="B67" t="n">
         <v>102</v>
       </c>
-      <c r="C67" t="n">
-        <v>4.33</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -1305,8 +1437,10 @@
       <c r="B68" t="n">
         <v>101</v>
       </c>
-      <c r="C68" t="n">
-        <v>5.33</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -1318,8 +1452,10 @@
       <c r="B69" t="n">
         <v>103</v>
       </c>
-      <c r="C69" t="n">
-        <v>7.67</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -1331,8 +1467,10 @@
       <c r="B70" t="n">
         <v>104</v>
       </c>
-      <c r="C70" t="n">
-        <v>7.67</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -1344,8 +1482,10 @@
       <c r="B71" t="n">
         <v>104</v>
       </c>
-      <c r="C71" t="n">
-        <v>8.33</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -1357,8 +1497,10 @@
       <c r="B72" t="n">
         <v>100</v>
       </c>
-      <c r="C72" t="n">
-        <v>5.67</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -1370,8 +1512,10 @@
       <c r="B73" t="n">
         <v>103</v>
       </c>
-      <c r="C73" t="n">
-        <v>6.33</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -1383,8 +1527,10 @@
       <c r="B74" t="n">
         <v>104</v>
       </c>
-      <c r="C74" t="n">
-        <v>6.67</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -1396,8 +1542,10 @@
       <c r="B75" t="n">
         <v>104</v>
       </c>
-      <c r="C75" t="n">
-        <v>7</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -1409,8 +1557,10 @@
       <c r="B76" t="n">
         <v>103</v>
       </c>
-      <c r="C76" t="n">
-        <v>6</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -1422,8 +1572,10 @@
       <c r="B77" t="n">
         <v>104</v>
       </c>
-      <c r="C77" t="n">
-        <v>5.33</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -1435,8 +1587,10 @@
       <c r="B78" t="n">
         <v>100</v>
       </c>
-      <c r="C78" t="n">
-        <v>7</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -1448,8 +1602,10 @@
       <c r="B79" t="n">
         <v>104</v>
       </c>
-      <c r="C79" t="n">
-        <v>8</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -1461,8 +1617,10 @@
       <c r="B80" t="n">
         <v>103</v>
       </c>
-      <c r="C80" t="n">
-        <v>6</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -1474,8 +1632,10 @@
       <c r="B81" t="n">
         <v>104</v>
       </c>
-      <c r="C81" t="n">
-        <v>5.67</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -1487,8 +1647,10 @@
       <c r="B82" t="n">
         <v>102</v>
       </c>
-      <c r="C82" t="n">
-        <v>6</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -1500,8 +1662,10 @@
       <c r="B83" t="n">
         <v>103</v>
       </c>
-      <c r="C83" t="n">
-        <v>3.67</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -1513,8 +1677,10 @@
       <c r="B84" t="n">
         <v>100</v>
       </c>
-      <c r="C84" t="n">
-        <v>8</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -1526,8 +1692,10 @@
       <c r="B85" t="n">
         <v>103</v>
       </c>
-      <c r="C85" t="n">
-        <v>8</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -1539,8 +1707,10 @@
       <c r="B86" t="n">
         <v>103</v>
       </c>
-      <c r="C86" t="n">
-        <v>7.33</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -1552,8 +1722,10 @@
       <c r="B87" t="n">
         <v>104</v>
       </c>
-      <c r="C87" t="n">
-        <v>6.33</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -1565,8 +1737,10 @@
       <c r="B88" t="n">
         <v>101</v>
       </c>
-      <c r="C88" t="n">
-        <v>7.67</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -1578,8 +1752,10 @@
       <c r="B89" t="n">
         <v>103</v>
       </c>
-      <c r="C89" t="n">
-        <v>6</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -1591,8 +1767,10 @@
       <c r="B90" t="n">
         <v>101</v>
       </c>
-      <c r="C90" t="n">
-        <v>6.67</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -1604,8 +1782,10 @@
       <c r="B91" t="n">
         <v>102</v>
       </c>
-      <c r="C91" t="n">
-        <v>6</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -1617,8 +1797,10 @@
       <c r="B92" t="n">
         <v>100</v>
       </c>
-      <c r="C92" t="n">
-        <v>6.33</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -1630,8 +1812,10 @@
       <c r="B93" t="n">
         <v>101</v>
       </c>
-      <c r="C93" t="n">
-        <v>5.67</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -1643,8 +1827,10 @@
       <c r="B94" t="n">
         <v>103</v>
       </c>
-      <c r="C94" t="n">
-        <v>6</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -1656,8 +1842,10 @@
       <c r="B95" t="n">
         <v>103</v>
       </c>
-      <c r="C95" t="n">
-        <v>8</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -1669,8 +1857,10 @@
       <c r="B96" t="n">
         <v>102</v>
       </c>
-      <c r="C96" t="n">
-        <v>6.33</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -1682,8 +1872,10 @@
       <c r="B97" t="n">
         <v>104</v>
       </c>
-      <c r="C97" t="n">
-        <v>7</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -1695,8 +1887,10 @@
       <c r="B98" t="n">
         <v>100</v>
       </c>
-      <c r="C98" t="n">
-        <v>7.67</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -1708,8 +1902,10 @@
       <c r="B99" t="n">
         <v>102</v>
       </c>
-      <c r="C99" t="n">
-        <v>7.33</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -1721,8 +1917,10 @@
       <c r="B100" t="n">
         <v>100</v>
       </c>
-      <c r="C100" t="n">
-        <v>6.33</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -1734,8 +1932,10 @@
       <c r="B101" t="n">
         <v>101</v>
       </c>
-      <c r="C101" t="n">
-        <v>8.33</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -1747,8 +1947,10 @@
       <c r="B102" t="n">
         <v>101</v>
       </c>
-      <c r="C102" t="n">
-        <v>5.67</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -1760,8 +1962,10 @@
       <c r="B103" t="n">
         <v>104</v>
       </c>
-      <c r="C103" t="n">
-        <v>5.67</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -1773,8 +1977,10 @@
       <c r="B104" t="n">
         <v>104</v>
       </c>
-      <c r="C104" t="n">
-        <v>6.67</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -1786,8 +1992,10 @@
       <c r="B105" t="n">
         <v>102</v>
       </c>
-      <c r="C105" t="n">
-        <v>9</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -1799,8 +2007,10 @@
       <c r="B106" t="n">
         <v>101</v>
       </c>
-      <c r="C106" t="n">
-        <v>7.67</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -1812,8 +2022,10 @@
       <c r="B107" t="n">
         <v>103</v>
       </c>
-      <c r="C107" t="n">
-        <v>7.67</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -1825,8 +2037,10 @@
       <c r="B108" t="n">
         <v>100</v>
       </c>
-      <c r="C108" t="n">
-        <v>6.67</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
       </c>
     </row>
   </sheetData>
